--- a/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-EFV.xlsx
+++ b/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-EFV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\siglas-entidades-financieras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\SiglasEntidadesFinancieras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E074431-AE7C-40A5-AA18-104A4011E674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639B424A-1744-4E55-9AA6-1262BDEE547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>SIGLA</t>
   </si>
@@ -37,6 +37,36 @@
   </si>
   <si>
     <t>La Primera Entidad Financiera de Vivienda</t>
+  </si>
+  <si>
+    <t>VPR</t>
+  </si>
+  <si>
+    <t>VPG</t>
+  </si>
+  <si>
+    <t>La Promotora Entidad Financiera de Vivienda</t>
+  </si>
+  <si>
+    <t>El Progreso Entidad Financiera de Vivienda</t>
+  </si>
+  <si>
+    <t>VPZ</t>
+  </si>
+  <si>
+    <t>VPA</t>
+  </si>
+  <si>
+    <t>VPT</t>
+  </si>
+  <si>
+    <t>VPD</t>
+  </si>
+  <si>
+    <t>VPY</t>
+  </si>
+  <si>
+    <t>No encotrado</t>
   </si>
 </sst>
 </file>
@@ -354,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,6 +408,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-EFV.xlsx
+++ b/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-EFV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\SiglasEntidadesFinancieras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639B424A-1744-4E55-9AA6-1262BDEE547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A499BF-5052-4D4D-81FA-C04359528E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>SIGLA</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>VPY</t>
-  </si>
-  <si>
-    <t>No encotrado</t>
   </si>
 </sst>
 </file>
@@ -387,7 +384,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,40 +425,25 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
